--- a/public/PubFiles/backlog.xlsx
+++ b/public/PubFiles/backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anash\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Webprojects\PIDEV\edspace_symfony\public\PubFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394DD0C-6648-496D-BF09-11D3C7A28A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7494390E-6A91-40DA-BACA-B6C675FFBB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="9615" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
   <si>
     <t>Gestion des Clubs</t>
   </si>
@@ -412,12 +413,71 @@
   <si>
     <t>45min</t>
   </si>
+  <si>
+    <t>story test d'acceptation</t>
+  </si>
+  <si>
+    <t>En tant que responsable d’un club, je veux pouvoir ajouter le texte d'une publication a l'aide de la reconnaissance vocale. Quand je click sur le micro et je commence a parler, le speech sera convertit en texte.</t>
+  </si>
+  <si>
+    <t>En tant qu'agent de scolarité, je veux pouvoir recevoir les publications en attente des clubs, les approuver ou les refuser.</t>
+  </si>
+  <si>
+    <t>Developpement de AcceptRefusePub()</t>
+  </si>
+  <si>
+    <t>Developpement de l'interface graphique pour l'ajout</t>
+  </si>
+  <si>
+    <t>Developpement de l'interface graphique pour l'approbation des pubs.</t>
+  </si>
+  <si>
+    <t>Developpement de microOnclick()</t>
+  </si>
+  <si>
+    <t>integration de l'api de reconnaissance vocale</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>En tant q'un utilisateur je veux pouvoir filtrer les publicaiton des clubs par date</t>
+  </si>
+  <si>
+    <t>En tant q'un utilisateur je veux pouvoir ajouter des publicaiton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etant donnée les publications des clubs x dans la rubrique club x, la 1ere publication est publiée le xx-xx-xxxx, la derniere est publiée le yy-yy-yyyy.
+Quand l'utilisateur filtre les publications en choisissant la date A comme minDate et date B comme maxDate et que la date A&lt;B
+Alors la rubrique est actualisée et les publications filtrées sont affichées. </t>
+  </si>
+  <si>
+    <t>Etant donnée les publications des clubs x dans la rubrique club x, la 1ere publication est publiée le xx-xx-xxxx, la derniere est publiée le yy-yy-yyyy.
+Quand l'utilisateur filtre les publications en choisissant la date A comme minDate et date B comme maxDate et que la date A&gt;B
+Alors un message indiquant 'minDate doit etre infereur au maxDate' est affiché.</t>
+  </si>
+  <si>
+    <t>Etant donnée l'interface d'ajout d'une publicaiton dans la rubrique club x, l'utilisateur a ajouté une image seulement
+Quand l'utilisateur clique sur le boutoun ajouter
+Alors un message indiquant 'le description de la publication ne peut pas etre vide' est affiché.</t>
+  </si>
+  <si>
+    <t>Etant donnée l'interface d'ajout d'une publicaiton dans la rubrique club x, l'utilisateur a ajouté une image et un texte.
+Quand l'utilisateur clique sur le boutoun ajouter
+Alors un message indiquant 'la publication est en attente d'approbation par l'admin' est affiché.</t>
+  </si>
+  <si>
+    <t>user story</t>
+  </si>
+  <si>
+    <t>stroy test de refus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -503,6 +563,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -572,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -905,11 +971,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,15 +1082,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -981,15 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -999,137 +1102,209 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,10 +1549,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26">
+      <c r="A1" s="55">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1386,21 +1561,21 @@
       <c r="D1" s="14">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="54"/>
       <c r="G2" s="11"/>
       <c r="J2" t="s">
         <v>34</v>
@@ -1410,8 +1585,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1430,8 +1605,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1450,8 +1625,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="53.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1474,8 +1649,8 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
@@ -1498,8 +1673,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1525,8 +1700,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1548,8 +1723,8 @@
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1572,8 +1747,8 @@
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1594,8 +1769,8 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1804,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48920A3B-B45B-40ED-B24C-6399C0A74002}">
   <dimension ref="A3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H58"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="C18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1823,965 +1998,967 @@
   <sheetData>
     <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32">
+      <c r="B5" s="78">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>2.1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>2.1</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>300</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="28">
+      <c r="B6" s="79"/>
+      <c r="C6" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>300</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="28">
+      <c r="B7" s="79"/>
+      <c r="C7" s="25">
         <v>2.2999999999999998</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="25">
         <v>295</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <v>295</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28">
+      <c r="B8" s="79"/>
+      <c r="C8" s="25">
         <v>2.4</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>2.4</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="25">
         <v>280</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="25">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="28">
+      <c r="B9" s="79"/>
+      <c r="C9" s="25">
         <v>2.5</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>2.5</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="25">
         <v>270</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="25">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28">
+      <c r="B10" s="79"/>
+      <c r="C10" s="25">
         <v>2.6</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <v>2.6</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="25">
         <v>279</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="28">
+      <c r="B11" s="79"/>
+      <c r="C11" s="25">
         <v>2.7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <v>2.7</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="25">
         <v>291</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="25">
         <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="28">
+      <c r="B12" s="79"/>
+      <c r="C12" s="25">
         <v>2.8</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <v>2.8</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="25">
         <v>270</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="28">
+      <c r="B13" s="79"/>
+      <c r="C13" s="25">
         <v>2.9</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <v>2.9</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="25">
         <v>290</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="25">
         <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="35">
+      <c r="B14" s="79"/>
+      <c r="C14" s="29">
         <v>2.1</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="29">
         <v>2.1</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="25">
         <v>288</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="25">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="28">
+      <c r="B15" s="80"/>
+      <c r="C15" s="25">
         <v>2.11</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>2.11</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="25">
         <v>288</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="45">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="60">
         <v>2.1</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="36"/>
+      <c r="H19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="46" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="48"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="46" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="48"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="49" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="48"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="51" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="54">
+      <c r="C26" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="55"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="49" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="55"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="54">
+      <c r="C29" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="55"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="51" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="55"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="49" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="55"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="49" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="55"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="46" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="55"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="46" t="s">
+      <c r="C34" s="65"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="57"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="49" t="s">
+      <c r="C35" s="66"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="54">
+      <c r="C36" s="64">
         <v>2.4</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="77" t="s">
+      <c r="F36" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="55"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="49" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="57"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="49" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="54">
+      <c r="C39" s="64">
         <v>2.5</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="55"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="49" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="55"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="49" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="55"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="49" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="57"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="49" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="80" t="s">
+      <c r="F43" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="55">
+      <c r="C44" s="65">
         <v>2.6</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="55"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="49" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="55"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="49" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="55"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="49" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="55"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="49" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="53" t="s">
+      <c r="G48" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="54">
+      <c r="C49" s="64">
         <v>2.7</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="55"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="56" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="80" t="s">
+      <c r="F50" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="55"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="56" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="55"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="56" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="80" t="s">
+      <c r="F52" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="57"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="56" t="s">
+      <c r="C53" s="66"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="81" t="s">
+      <c r="F53" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="G53" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="54">
+      <c r="C54" s="64">
         <v>2.8</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="80" t="s">
+      <c r="F54" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="53" t="s">
+      <c r="G54" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="55"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="49" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="82" t="s">
+      <c r="F55" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="53" t="s">
+      <c r="G55" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="41" t="s">
+      <c r="H55" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="55"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="49" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="80" t="s">
+      <c r="F56" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="55"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="49" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="80" t="s">
+      <c r="F57" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="57"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="49" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G58" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="D19:D25"/>
     <mergeCell ref="D54:D58"/>
     <mergeCell ref="C19:C25"/>
     <mergeCell ref="C36:C38"/>
@@ -2797,11 +2974,305 @@
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="D49:D53"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="D19:D25"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E18154A-6D76-43F8-A0BE-8E0A002D0A96}">
+  <dimension ref="B6:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="C27:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="94">
+        <v>2</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="95"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="88">
+        <v>1</v>
+      </c>
+      <c r="G9" s="93"/>
+    </row>
+    <row r="10" spans="2:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="93"/>
+    </row>
+    <row r="11" spans="2:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="95"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="93"/>
+    </row>
+    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="95"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="93"/>
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="96">
+        <v>1</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="93"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="97"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="88">
+        <v>1</v>
+      </c>
+      <c r="G14" s="93"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="97"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="93"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="97"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="93"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="97"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="93"/>
+    </row>
+    <row r="18" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="91"/>
+    </row>
+    <row r="20" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="91"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="E21" s="91"/>
+    </row>
+    <row r="22" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="C28" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="G8:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>